--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetLoginId.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetLoginId.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_140920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Konnect_Initialization\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Case</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Success!</t>
+  </si>
+  <si>
+    <t>success_message_desc</t>
+  </si>
+  <si>
+    <t>Your login ID has been successfully sent to your mobile number xxxxxxx registered with HBL.</t>
+  </si>
+  <si>
+    <t>mob_no_query</t>
+  </si>
+  <si>
+    <t>SELECT CI.MOBILE_NO FROM DC_CUSTOMER_INFO CI WHERE CI.CNIC = '{customer_cnic}'</t>
   </si>
 </sst>
 </file>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,14 +440,16 @@
     <col min="7" max="7" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +477,14 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -486,8 +506,14 @@
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -508,6 +534,12 @@
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetLoginId.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/ForgetLoginId.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Case</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Select I.CUSTOMER_TYPE from dc_customer_info i where I.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>3640211897773</t>
-  </si>
-  <si>
-    <t>4028052000002718</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
@@ -59,12 +53,6 @@
     <t>farooq.leo@hotmail.com</t>
   </si>
   <si>
-    <t>When I am verifying Forget login id for Credit Type Customer</t>
-  </si>
-  <si>
-    <t>When I am verifying Forget login id for Debit Type Customer</t>
-  </si>
-  <si>
     <t>mobile_no</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>pin</t>
   </si>
   <si>
-    <t>03006943677</t>
-  </si>
-  <si>
     <t>03008381621</t>
   </si>
   <si>
@@ -99,13 +84,82 @@
   </si>
   <si>
     <t>SELECT CI.MOBILE_NO FROM DC_CUSTOMER_INFO CI WHERE CI.CNIC = '{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can successfully perform Forgot Login ID</t>
+  </si>
+  <si>
+    <t>1350314051455</t>
+  </si>
+  <si>
+    <t>03110204994</t>
+  </si>
+  <si>
+    <t>2205430001256567</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>4552102554255</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>03425452587</t>
+  </si>
+  <si>
+    <t>To verify that D-type customer can successfully perform Forgot Login ID with incorrect Debit Card number</t>
+  </si>
+  <si>
+    <t>2205430001251234</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect CNIC</t>
+  </si>
+  <si>
+    <t>8445201335477</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can not perform Forgot Login ID with incorrect Mobile Number</t>
+  </si>
+  <si>
+    <t>03564587547</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Credit Card number</t>
+  </si>
+  <si>
+    <t>4902845454884109</t>
+  </si>
+  <si>
+    <t>To verify that C-type customer can successfully perform Forgot Login ID with incorrect Email Address</t>
+  </si>
+  <si>
+    <t>To verify that Blocked user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>3630238205916</t>
+  </si>
+  <si>
+    <t>To verify that Partial Activated user can not perform Forgot Login ID journey</t>
+  </si>
+  <si>
+    <t>4250148850220</t>
+  </si>
+  <si>
+    <t>shoaib.qureshi@hbl.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +172,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,15 +199,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,90 +528,366 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>